--- a/SRC/api/template/judgeResult.xlsx
+++ b/SRC/api/template/judgeResult.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB1685-7E5B-4E72-8362-C915FAC66D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F148D6D-B436-4A15-83C2-6A4C7853B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{617B347C-463F-4DE9-8F2E-4DAE9D29295C}"/>
+    <workbookView xWindow="504" yWindow="612" windowWidth="19992" windowHeight="11196" xr2:uid="{617B347C-463F-4DE9-8F2E-4DAE9D29295C}"/>
   </bookViews>
   <sheets>
     <sheet name="概況診断結果レポート" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +210,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -316,7 +316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,12 +472,12 @@
       <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="1"/>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -512,7 +512,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -576,7 +576,7 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -607,7 +607,7 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -638,7 +638,7 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -669,7 +669,7 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -700,7 +700,7 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -731,7 +731,7 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -762,7 +762,7 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -793,7 +793,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -824,7 +824,7 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -855,7 +855,7 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -886,7 +886,7 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -917,7 +917,7 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -948,7 +948,7 @@
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -979,7 +979,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1010,7 +1010,7 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
